--- a/新学校面积规划.xlsx
+++ b/新学校面积规划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>总使用面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,24 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>120M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高中部面积计算（每排宽0.9米，长3.1米，黑板长1.5米，宽1米，教室讲台空间留1米+讲台宽）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>96(普通)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>10</t>
     </r>
@@ -308,6 +286,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一对一教室面积计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1至2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2M * 2M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -317,69 +355,266 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>120M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一对一教室面积计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1至2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2M * 2M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8M * 4M = 32M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>160+160+128+8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= 456M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7M * 2.6M * 6 = 109M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（住60人， 30床， 六个寝室，每个寝室10人，
+每张床宽一米，长两米，每个寝室5张床。男女各三个寝室）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共卫生间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寝室卫生间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6个，每个寝室一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2个，教室区一个，餐饮区一个。至少20M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个，坐8个人，两张办公桌，一个炉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校长办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个，坐1个人，一张办公桌，需要接待顾客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个，坐4个人，一个桌子，四张椅子，接待顾客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个，有一个前台，需要放一两坐沙发，供顾客休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,378 +642,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（书架一排4个，可容纳60人）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1100M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7M * 2.6M * 10 = 182M2（住120人， 60床， 十个寝室，每个寝室12人，
-每张床宽一米，长两米，每个寝室6张床）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8M * 4M = 32M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24（尖子）（预留）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>128M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>120M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 32M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 120M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 32M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 128M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 8M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= 440M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>872M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>228</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（预留）</t>
+      <t>（书架一排3个，可容纳40人）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -895,7 +759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +778,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,41 +814,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1256,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B22" sqref="B22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1273,14 +1143,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1303,320 +1173,323 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
+      <c r="A3" s="2">
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>32</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="2">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="F6" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="2">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="2">
-        <v>96</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" ht="34.5" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="33" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75">
+        <v>29</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
+      <c r="B21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="18"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
